--- a/Datacategories_lll.xlsx
+++ b/Datacategories_lll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuboming\OneDrive\tesp_weather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liub725\OneDrive\tesp_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Datacategories_lll" sheetId="1" r:id="rId1"/>
@@ -283,11 +283,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,7 +295,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,7 +303,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -312,7 +312,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,7 +321,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -330,7 +330,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -338,7 +338,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,7 +346,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,7 +354,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -362,7 +362,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +371,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +380,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -388,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,7 +397,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,7 +405,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,7 +414,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -423,7 +423,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,7 +431,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -439,14 +439,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -898,48 +898,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1219,17 +1219,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A79" sqref="A79:B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
